--- a/LLM/BTS_SIO_Infos.xlsx
+++ b/LLM/BTS_SIO_Infos.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bohort\GitHub\Liliane\LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ADE6A2-D247-496A-A8B0-FE3683CDA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661E8A8-7AC1-44DB-A9D9-76CC7F196C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Présentation Générale" sheetId="1" r:id="rId1"/>
-    <sheet name="Option SISR" sheetId="2" r:id="rId2"/>
-    <sheet name="Option SLAM" sheetId="3" r:id="rId3"/>
-    <sheet name="Admission" sheetId="4" r:id="rId4"/>
-    <sheet name="Stages" sheetId="5" r:id="rId5"/>
-    <sheet name="Débouchés" sheetId="6" r:id="rId6"/>
-    <sheet name="Équipements" sheetId="7" r:id="rId7"/>
-    <sheet name="Programme" sheetId="8" r:id="rId8"/>
-    <sheet name="Vie Étudiante" sheetId="9" r:id="rId9"/>
-    <sheet name="Contact" sheetId="10" r:id="rId10"/>
+    <sheet name="Images" sheetId="11" r:id="rId2"/>
+    <sheet name="Option SISR" sheetId="2" r:id="rId3"/>
+    <sheet name="Option SLAM" sheetId="3" r:id="rId4"/>
+    <sheet name="Admission" sheetId="4" r:id="rId5"/>
+    <sheet name="Stages" sheetId="5" r:id="rId6"/>
+    <sheet name="Débouchés" sheetId="6" r:id="rId7"/>
+    <sheet name="Équipements" sheetId="7" r:id="rId8"/>
+    <sheet name="Programme" sheetId="8" r:id="rId9"/>
+    <sheet name="Vie Étudiante" sheetId="9" r:id="rId10"/>
+    <sheet name="Contact" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
   <si>
     <t>Information</t>
   </si>
@@ -394,6 +395,42 @@
   </si>
   <si>
     <t>https://dossierappel.parcoursup.fr/Candidats/public/fiches/afficherFicheFormation?g_ta_cod=3810&amp;typeBac=0&amp;originePc=0</t>
+  </si>
+  <si>
+    <t>Fichier</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>logo.png</t>
+  </si>
+  <si>
+    <t>Logo de l'établissement</t>
+  </si>
+  <si>
+    <t>ville.jpg</t>
+  </si>
+  <si>
+    <t>Ville de Châteaulin</t>
+  </si>
+  <si>
+    <t>Bâtiment du lycée</t>
+  </si>
+  <si>
+    <t>lycee_saint_louis.jpg</t>
+  </si>
+  <si>
+    <t>salle_sport.jpg</t>
+  </si>
+  <si>
+    <t>Salle de sport du lycée</t>
+  </si>
+  <si>
+    <t>livre_cybersecurite.jpg</t>
+  </si>
+  <si>
+    <t>Livre / manuel utilisé pour apprendre la cybersécurité</t>
   </si>
 </sst>
 </file>
@@ -766,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -816,11 +853,70 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,12 +1014,82 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{6AF7BE0E-419F-4A2A-BB30-C6B4E0725B40}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC3A812-0C89-4CAE-B07E-C12AB338AF44}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -979,7 +1145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -1042,7 +1208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1141,7 +1307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -1202,11 +1368,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1291,12 +1459,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,11 +1507,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1465,63 +1635,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>